--- a/spec/fixtures/qryGREG_Amazon_ItemInfo.xlsx
+++ b/spec/fixtures/qryGREG_Amazon_ItemInfo.xlsx
@@ -52,7 +52,7 @@
     <t>IM_CASE_UPC</t>
   </si>
   <si>
-    <t>AAC00206</t>
+    <t>AAA00001</t>
   </si>
   <si>
     <t>ABC Foods, XXX Dressing, 237ml</t>
@@ -73,10 +73,10 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>815074021444</t>
-  </si>
-  <si>
-    <t>AAC00207</t>
+    <t>815094021444</t>
+  </si>
+  <si>
+    <t>BBB00002</t>
   </si>
   <si>
     <t>ABC Foods, XXX Dressing, 6 Count of 237ml</t>
@@ -85,7 +85,7 @@
     <t>10895079021941</t>
   </si>
   <si>
-    <t>AAC00208</t>
+    <t>CCC00003</t>
   </si>
   <si>
     <t>YYY, 6 Count of 237ml</t>
@@ -97,7 +97,7 @@
     <t>16816076029837</t>
   </si>
   <si>
-    <t>AAC00209</t>
+    <t>DDD00004</t>
   </si>
   <si>
     <t>ABC Foods Apple Cider Vinegar Dressing, 237 ml.</t>
@@ -106,7 +106,7 @@
     <t>855574522541</t>
   </si>
   <si>
-    <t>AAC00210</t>
+    <t>EEE00005</t>
   </si>
   <si>
     <t>CDE, YYY Dressing, 12 Pack of 200ml</t>
@@ -118,7 +118,7 @@
     <t>08316338300385</t>
   </si>
   <si>
-    <t>AAC00213</t>
+    <t>FFF00006</t>
   </si>
   <si>
     <t>CDE, YYY Dressing, 200ml (Pack of 1)</t>
@@ -136,7 +136,7 @@
     <t>111122223333</t>
   </si>
   <si>
-    <t>AAC00216</t>
+    <t>GGG00039</t>
   </si>
   <si>
     <t>Sample 1 count</t>
@@ -145,7 +145,7 @@
     <t>844147004345</t>
   </si>
   <si>
-    <t>AAC00217</t>
+    <t>ZZZ02017</t>
   </si>
   <si>
     <t>Sample, 6 Count of 500g</t>
